--- a/data/trans_bre/P19C07-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.907541584984375</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.689214793842259</v>
+        <v>1.68921479384226</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.518246121193073</v>
@@ -649,7 +649,7 @@
         <v>1.383826066266688</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4279097054021681</v>
+        <v>0.4279097054021682</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.860454434119001</v>
+        <v>-3.961454918864826</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.521488794143303</v>
+        <v>-1.235219907643845</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2232797175234283</v>
+        <v>-0.2224860537259397</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7789111912812434</v>
+        <v>-1.198643361597436</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.8950218001508675</v>
+        <v>-0.9012655098558904</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3595328149614198</v>
+        <v>-0.3711878664209611</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2388147430954888</v>
+        <v>-0.369979929273219</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.172081746170465</v>
+        <v>-0.2477014171045627</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7438758286515862</v>
+        <v>0.5488376392386832</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.878039072259269</v>
+        <v>5.816624628196303</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.045385669026512</v>
+        <v>4.896366359038196</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.493316955329338</v>
+        <v>4.178518489797688</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8152413916473226</v>
+        <v>0.5656765775886146</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.715661925366661</v>
+        <v>2.802133196683554</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>9.708517271038952</v>
+        <v>8.184442092579257</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.555373385297797</v>
+        <v>1.590282682045885</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.2675332048273211</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.210813582808516</v>
+        <v>1.210813582808517</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3280605989745707</v>
@@ -749,7 +749,7 @@
         <v>-0.08027422733217403</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4105165074842307</v>
+        <v>0.4105165074842311</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.091433526994164</v>
+        <v>-2.267322308518508</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.147670598819229</v>
+        <v>-1.062453029666564</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.029010859328054</v>
+        <v>-3.38048974231663</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.241440545674883</v>
+        <v>-1.319869495199933</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4121705659892888</v>
+        <v>-0.4693494962848724</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6999830355081751</v>
+        <v>-0.6993956637271102</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6335966533572209</v>
+        <v>-0.6635736403247731</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3337841995633124</v>
+        <v>-0.3635439078112496</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.328495438912386</v>
+        <v>4.145387384938252</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.589825914507998</v>
+        <v>2.604222291863562</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.678316218342122</v>
+        <v>2.486511853211217</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.833034106572171</v>
+        <v>3.656385704591055</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.274138962248072</v>
+        <v>2.109450397188927</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.918002876179665</v>
+        <v>5.31344531977715</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.458089961263697</v>
+        <v>1.350273174065726</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.994305388264864</v>
+        <v>1.924933623499916</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.49854270527179</v>
+        <v>-4.624808597004158</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.483159528651128</v>
+        <v>-2.433853763197071</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.117443207466821</v>
+        <v>-3.114769906051192</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.492647643999153</v>
+        <v>-3.537213112675924</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.8495917290186777</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6496463264190298</v>
+        <v>-0.6427123749582846</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7833856964631764</v>
+        <v>-0.7836700776122385</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6820574145811957</v>
+        <v>-0.675942506839344</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.984102764261267</v>
+        <v>1.723915061489738</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.027755127362857</v>
+        <v>2.95116967444175</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.78917421517342</v>
+        <v>5.154704938498876</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.317827749171575</v>
+        <v>2.343932611637532</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.02275726391436</v>
+        <v>0.7508530193744216</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.606029559087412</v>
+        <v>1.448354287419151</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.175183522618388</v>
+        <v>2.344431598248329</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9605353153744897</v>
+        <v>1.097250528667235</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.812286523816614</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.129175189974704</v>
+        <v>2.129175189974703</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3058687139747006</v>
@@ -949,7 +949,7 @@
         <v>0.7211258955190225</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6811611404777185</v>
+        <v>0.6811611404777181</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.917547088722148</v>
+        <v>-0.7973725667366168</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.5119994845649236</v>
+        <v>-0.5447569218491379</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.008379113010592432</v>
+        <v>0.1639848056370873</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2543602520221557</v>
+        <v>0.348167655446177</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2784961323717716</v>
+        <v>-0.2365406828041479</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1525098198555005</v>
+        <v>-0.1688998820737909</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.02755533539345962</v>
+        <v>0.01069400027015792</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.04960540691976063</v>
+        <v>0.03533181172647014</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.896680205864986</v>
+        <v>3.044387171942413</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.348989670391011</v>
+        <v>3.344793442776642</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.799862018021989</v>
+        <v>3.677350882202907</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.196486033093761</v>
+        <v>4.047168322963921</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.374102898403555</v>
+        <v>1.432469893538502</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.683727985086041</v>
+        <v>1.792170787904213</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.219715638496548</v>
+        <v>2.062636866972447</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.900305210190689</v>
+        <v>1.833736445563702</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.5630506817074166</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1496739261694115</v>
+        <v>0.1496739261694104</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.239062267128159</v>
@@ -1049,7 +1049,7 @@
         <v>0.2714297937912254</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.05142575952162295</v>
+        <v>0.05142575952162258</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.290222531573395</v>
+        <v>-2.363827666773755</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.726776722529495</v>
+        <v>-1.741629568666392</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.357075829244669</v>
+        <v>-1.503711647805677</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.305351530019824</v>
+        <v>-3.392787555115983</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.426190882165162</v>
+        <v>-0.4299166809353969</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5301124254359103</v>
+        <v>-0.5527357786089215</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4508298940974951</v>
+        <v>-0.5002987301308379</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5811860802884306</v>
+        <v>-0.6018242743772206</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.724025180767141</v>
+        <v>3.650403595476476</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.055812274150076</v>
+        <v>2.042159156044715</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.634703439441059</v>
+        <v>2.633367595554241</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.934552483708216</v>
+        <v>2.120314782546495</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.972652919203141</v>
+        <v>1.842776271747975</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.82005720382814</v>
+        <v>1.662654277928784</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.597814467019653</v>
+        <v>2.443096220678024</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.320652396283819</v>
+        <v>1.533528441436554</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-5.166492267996474</v>
+        <v>-5.082511481927618</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-12.3444265977161</v>
+        <v>-12.34452852581225</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-5.642454443567185</v>
+        <v>-5.894753536891515</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-6.747005882311476</v>
+        <v>-6.999215087361595</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6587040825323764</v>
+        <v>-0.6702800253616549</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7705588710793746</v>
+        <v>-0.7716305632554359</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6274173410647792</v>
+        <v>-0.6480444724082255</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7257687189481636</v>
+        <v>-0.7499635023522803</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.035007257131709</v>
+        <v>1.086938019348804</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-3.205115623109927</v>
+        <v>-3.7309278464116</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9898918343882257</v>
+        <v>1.043406221617977</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.360694720208379</v>
+        <v>2.423354181348774</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5128827973470644</v>
+        <v>0.4619856819054477</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.3907928739132905</v>
+        <v>-0.4105412894925627</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3138491302319903</v>
+        <v>0.2837087901100402</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.514578984976157</v>
+        <v>1.674781494837491</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>0.7566933927050514</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.776266967840214</v>
+        <v>0.7762669678402133</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007757871474389719</v>
@@ -1249,7 +1249,7 @@
         <v>0.2652364976440416</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2280879342357775</v>
+        <v>0.2280879342357773</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.00538550231362</v>
+        <v>-0.9908132661881752</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.7336356034015792</v>
+        <v>-0.7960205043762906</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.1687635208822756</v>
+        <v>-0.1475833829013213</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3602322348807394</v>
+        <v>-0.2478171873972132</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2415502551030972</v>
+        <v>-0.2472953907355923</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.193651494668847</v>
+        <v>-0.1997731578575414</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.05228161562616601</v>
+        <v>-0.06065047135376971</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.09318551689686205</v>
+        <v>-0.06485513274598592</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9633553489428845</v>
+        <v>0.9933315094698574</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.238179329106419</v>
+        <v>1.220890679108581</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.712709268893084</v>
+        <v>1.838599170381793</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.746589787349496</v>
+        <v>1.76269662267232</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3142686315642457</v>
+        <v>0.3375672873745751</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4504683689322969</v>
+        <v>0.4507932770166293</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7002889306001857</v>
+        <v>0.795334319537692</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6126067778520112</v>
+        <v>0.6293716735241182</v>
       </c>
     </row>
     <row r="25">
